--- a/ejercicio supermercado.xlsx
+++ b/ejercicio supermercado.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="farmacia" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>T</t>
   </si>
@@ -105,13 +106,85 @@
   </si>
   <si>
     <t>supp(i,j)</t>
+  </si>
+  <si>
+    <t>vitaminas</t>
+  </si>
+  <si>
+    <t>antigripal</t>
+  </si>
+  <si>
+    <t>paracetamol</t>
+  </si>
+  <si>
+    <t>ibuprofeno</t>
+  </si>
+  <si>
+    <t>aspirina</t>
+  </si>
+  <si>
+    <t>jarabe_tos</t>
+  </si>
+  <si>
+    <t>complejoB</t>
+  </si>
+  <si>
+    <t>supp(i)</t>
+  </si>
+  <si>
+    <t>i2,i3</t>
+  </si>
+  <si>
+    <t>P(i2-&gt;i3)</t>
+  </si>
+  <si>
+    <t>lift(i2-&gt;i3)</t>
+  </si>
+  <si>
+    <t>Confianza</t>
+  </si>
+  <si>
+    <t>Elevación</t>
+  </si>
+  <si>
+    <t>Regla 2: antigripal,paracetamol -&gt; complejoB</t>
+  </si>
+  <si>
+    <t>supp(i2,i3)</t>
+  </si>
+  <si>
+    <t>supp(i5)</t>
+  </si>
+  <si>
+    <t>confianza</t>
+  </si>
+  <si>
+    <t>elevación</t>
+  </si>
+  <si>
+    <t>P(i2,i3-&gt;i5)</t>
+  </si>
+  <si>
+    <t>lift(i2,i3-&gt;i5)</t>
+  </si>
+  <si>
+    <t>supp(i2,i3,i5)</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>P(i5-&gt;i2,i3)</t>
+  </si>
+  <si>
+    <t>lift(i5-&gt;i2,i3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,16 +192,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -136,14 +223,191 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,4 +966,350 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="5">
+        <f>SUM(B3:B7)</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" ref="C8:H8" si="0">SUM(C3:C7)</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2">
+        <f>B8/$A$7</f>
+        <v>0.6</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" ref="C9:H9" si="1">C8/$A$7</f>
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <f>D11/$A$7</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3">
+        <f>C12/C9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3">
+        <f>C12/(C9*D9)</f>
+        <v>2.4999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3">
+        <f>C12</f>
+        <v>0.4</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3">
+        <f>F9</f>
+        <v>0.4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A18:E18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>